--- a/make_quiz_json/LAT-quiz-content.xlsx
+++ b/make_quiz_json/LAT-quiz-content.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t>paragraphs</t>
   </si>
@@ -219,7 +219,7 @@
   <si>
     <t>*U.S. Citizen
 *U.S. non-citizen national
-*Qualified alien under appliacable federal immigration laws</t>
+*Qualified alien under applicable federal immigration laws</t>
   </si>
   <si>
     <t>You stated you are not one of the qualifying citizenship statuses which may impact your eligibility for an FSA loan.</t>
@@ -264,7 +264,7 @@
     <t>You stated that your payment history could be better.</t>
   </si>
   <si>
-    <t>Credit history is a common reasons applicants are denied. We recommend reviewing your situation with a loan officer before applying.</t>
+    <t>Credit history is a common reason applicants are denied. We recommend reviewing your situation with a loan officer before applying.</t>
   </si>
   <si>
     <t>Do you currently have any delinquent federal debts or unpaid federal judgements?</t>
@@ -305,9 +305,6 @@
 *Had a debt written off as a part of the resolution for a discrimination complaint against the Farm Service Agency
 *Had a prior debt forgiven that has been repaid entirely
 *Had a debt forgiven on a Youth Loan for circumstances beyond the applicant’s control</t>
-  </si>
-  <si>
-    <t>It's time to start filling out the  forms for your Operating Loan. How would you find which forms to fill out for your application?</t>
   </si>
 </sst>
 </file>
@@ -768,7 +765,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.5"/>
+    <col customWidth="1" min="2" max="2" width="29.38"/>
     <col customWidth="1" min="5" max="5" width="35.38"/>
     <col customWidth="1" min="6" max="6" width="40.63"/>
     <col customWidth="1" min="46" max="46" width="21.25"/>
@@ -1031,7 +1028,7 @@
         <v>1.0</v>
       </c>
       <c r="S3" s="24">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T3" s="24">
         <v>1.0</v>
@@ -1845,7 +1842,7 @@
         <v>1.0</v>
       </c>
       <c r="S11" s="14">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T11" s="14">
         <v>9.0</v>
@@ -1947,7 +1944,7 @@
         <v>1.0</v>
       </c>
       <c r="S12" s="14">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T12" s="14">
         <v>10.0</v>
@@ -2151,7 +2148,7 @@
         <v>1.0</v>
       </c>
       <c r="S14" s="14">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T14" s="14">
         <v>12.0</v>
@@ -2257,7 +2254,7 @@
         <v>1.0</v>
       </c>
       <c r="S15" s="14">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T15" s="14">
         <v>9999.0</v>
@@ -2595,9 +2592,7 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="E20" s="14"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>

--- a/make_quiz_json/LAT-quiz-content.xlsx
+++ b/make_quiz_json/LAT-quiz-content.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>paragraphs</t>
   </si>
@@ -146,9 +146,6 @@
   <si>
     <t>4-H, FFA, Tribal Youth groups, or similar youth organization. Must 
 be between 10 and 20 years old</t>
-  </si>
-  <si>
-    <t>Youth summary page</t>
   </si>
   <si>
     <t>1&amp;2:13,1&amp;3:2,2&amp;3:3</t>
@@ -1184,14 +1181,12 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
-      <c r="AR4" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="AR4" s="24"/>
       <c r="AS4" s="14"/>
       <c r="AT4" s="15"/>
       <c r="AU4" s="14"/>
       <c r="AV4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AW4" s="14"/>
       <c r="AX4" s="15"/>
@@ -1207,16 +1202,16 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -1231,7 +1226,7 @@
         <v>4.0</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -1248,7 +1243,7 @@
         <v>4.0</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
@@ -1303,16 +1298,16 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -1327,7 +1322,7 @@
         <v>4.0</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -1344,7 +1339,7 @@
         <v>4.0</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
@@ -1399,7 +1394,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>16</v>
@@ -1408,7 +1403,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -1481,10 +1476,10 @@
         <v>21</v>
       </c>
       <c r="AT7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU7" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AV7" s="14"/>
       <c r="AW7" s="15"/>
@@ -1501,7 +1496,7 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
@@ -1510,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1580,13 +1575,13 @@
       <c r="AQ8" s="15"/>
       <c r="AR8" s="15"/>
       <c r="AS8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AT8" s="14" t="s">
+      <c r="AU8" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="AU8" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="AV8" s="15"/>
       <c r="AW8" s="15"/>
@@ -1603,7 +1598,7 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>16</v>
@@ -1612,7 +1607,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1682,13 +1677,13 @@
       <c r="AQ9" s="15"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AT9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AU9" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AV9" s="15"/>
       <c r="AW9" s="15"/>
@@ -1705,16 +1700,16 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1787,10 +1782,10 @@
         <v>21</v>
       </c>
       <c r="AT10" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU10" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AV10" s="15"/>
       <c r="AW10" s="15"/>
@@ -1807,16 +1802,16 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1886,13 +1881,13 @@
       <c r="AQ11" s="15"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AT11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AV11" s="15"/>
       <c r="AW11" s="15"/>
@@ -1909,16 +1904,16 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -1991,10 +1986,10 @@
         <v>21</v>
       </c>
       <c r="AT12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AU12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AV12" s="15"/>
       <c r="AW12" s="15"/>
@@ -2011,16 +2006,16 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2052,7 +2047,7 @@
         <v>11.0</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2093,10 +2088,10 @@
         <v>21</v>
       </c>
       <c r="AT13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AU13" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV13" s="15"/>
       <c r="AW13" s="15"/>
@@ -2113,16 +2108,16 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -2195,10 +2190,10 @@
         <v>21</v>
       </c>
       <c r="AT14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AU14" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AV14" s="15"/>
       <c r="AW14" s="15"/>
@@ -2215,19 +2210,19 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2248,7 +2243,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R15" s="14">
         <v>1.0</v>
@@ -2267,7 +2262,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA15" s="14">
         <v>-1.0</v>
@@ -2303,10 +2298,10 @@
         <v>21</v>
       </c>
       <c r="AT15" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU15" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AV15" s="15"/>
       <c r="AW15" s="15"/>
@@ -2323,16 +2318,16 @@
         <v>13.0</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>38</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
@@ -2347,7 +2342,7 @@
         <v>3.0</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
@@ -2364,7 +2359,7 @@
         <v>4.0</v>
       </c>
       <c r="U16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V16" s="28"/>
       <c r="W16" s="28"/>

--- a/make_quiz_json/LAT-quiz-content.xlsx
+++ b/make_quiz_json/LAT-quiz-content.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
   <si>
     <t>paragraphs</t>
   </si>
@@ -166,7 +166,13 @@
     <t>More than $50,000</t>
   </si>
   <si>
+    <t>Operating Microloan</t>
+  </si>
+  <si>
     <t>Are you planning to apply for a loan below or above $50,000 to help finance BUYING OR EXPANDING your farm?</t>
+  </si>
+  <si>
+    <t>Microloan Farm Ownership</t>
   </si>
   <si>
     <t>Have you spent at least three of the last ten years gaining farming experience?</t>
@@ -214,9 +220,9 @@
     <t>Loan Eligibility</t>
   </si>
   <si>
-    <t>*U.S. Citizen
-*U.S. non-citizen national
-*Qualified alien under applicable federal immigration laws</t>
+    <t>U.S. Citizen*
+U.S. non-citizen national*
+Qualified alien under applicable federal immigration laws*</t>
   </si>
   <si>
     <t>You stated you are not one of the qualifying citizenship statuses which may impact your eligibility for an FSA loan.</t>
@@ -282,10 +288,10 @@
     <t>Applicants who have been forgiven of a past FSA loan will be considered ineligible for Direct Loan Assistance, with the exception of Annual Operating Loans, unless they have extenuating circumstances such as:</t>
   </si>
   <si>
-    <t>*Received a debt reduction through a conservation easement or contract
-*Had a debt written off as a part of the resolution for a discrimination complaint against the Farm Service Agency
-*Had a prior debt forgiven that has been repaid entirely
-*Had a debt forgiven on a Youth Loan for circumstances beyond the applicant’s control</t>
+    <t>Received a debt reduction through a conservation easement or contract*
+Had a debt written off as a part of the resolution for a discrimination complaint against the Farm Service Agency*
+Had a prior debt forgiven that has been repaid entirely*
+Had a debt forgiven on a Youth Loan for circumstances beyond the applicant’s control*</t>
   </si>
   <si>
     <t>Summary page</t>
@@ -1283,7 +1289,9 @@
       <c r="AS5" s="14"/>
       <c r="AT5" s="15"/>
       <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
+      <c r="AV5" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="AW5" s="15"/>
       <c r="AX5" s="15"/>
       <c r="AY5" s="15"/>
@@ -1298,7 +1306,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>37</v>
@@ -1379,7 +1387,9 @@
       <c r="AS6" s="14"/>
       <c r="AT6" s="15"/>
       <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
+      <c r="AV6" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="AW6" s="15"/>
       <c r="AX6" s="15"/>
       <c r="AY6" s="15"/>
@@ -1394,7 +1404,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>16</v>
@@ -1403,7 +1413,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -1476,10 +1486,10 @@
         <v>21</v>
       </c>
       <c r="AT7" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AU7" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AV7" s="14"/>
       <c r="AW7" s="15"/>
@@ -1496,7 +1506,7 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
@@ -1505,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1575,13 +1585,13 @@
       <c r="AQ8" s="15"/>
       <c r="AR8" s="15"/>
       <c r="AS8" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AU8" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AV8" s="15"/>
       <c r="AW8" s="15"/>
@@ -1598,7 +1608,7 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>16</v>
@@ -1607,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1677,13 +1687,13 @@
       <c r="AQ9" s="15"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT9" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AU9" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AV9" s="15"/>
       <c r="AW9" s="15"/>
@@ -1700,16 +1710,16 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1782,10 +1792,10 @@
         <v>21</v>
       </c>
       <c r="AT10" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU10" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AV10" s="15"/>
       <c r="AW10" s="15"/>
@@ -1802,16 +1812,16 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1881,13 +1891,13 @@
       <c r="AQ11" s="15"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT11" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AU11" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AV11" s="15"/>
       <c r="AW11" s="15"/>
@@ -1904,16 +1914,16 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -1986,10 +1996,10 @@
         <v>21</v>
       </c>
       <c r="AT12" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU12" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AV12" s="15"/>
       <c r="AW12" s="15"/>
@@ -2006,16 +2016,16 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2047,7 +2057,7 @@
         <v>11.0</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2088,10 +2098,10 @@
         <v>21</v>
       </c>
       <c r="AT13" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AU13" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV13" s="15"/>
       <c r="AW13" s="15"/>
@@ -2108,16 +2118,16 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -2190,10 +2200,10 @@
         <v>21</v>
       </c>
       <c r="AT14" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AU14" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AV14" s="15"/>
       <c r="AW14" s="15"/>
@@ -2210,19 +2220,19 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2243,7 +2253,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R15" s="14">
         <v>1.0</v>
@@ -2262,7 +2272,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA15" s="14">
         <v>-1.0</v>
@@ -2298,10 +2308,10 @@
         <v>21</v>
       </c>
       <c r="AT15" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AU15" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AV15" s="15"/>
       <c r="AW15" s="15"/>
@@ -2324,7 +2334,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>38</v>
@@ -2356,7 +2366,7 @@
         <v>2.0</v>
       </c>
       <c r="T16" s="14">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U16" s="27" t="s">
         <v>40</v>
@@ -2399,7 +2409,9 @@
       <c r="AS16" s="30"/>
       <c r="AT16" s="31"/>
       <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
+      <c r="AV16" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="AW16" s="31"/>
       <c r="AX16" s="31"/>
       <c r="AY16" s="15"/>
